--- a/DBDQ.xlsx
+++ b/DBDQ.xlsx
@@ -1,18 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE582FF6-9827-4AB2-BA36-AA0BCECD32BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="3750" yWindow="3345" windowWidth="15885" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arizona" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -69,9 +81,6 @@
     <t>Water</t>
   </si>
   <si>
-    <t>Number</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -169,12 +178,15 @@
   </si>
   <si>
     <t>Z</t>
+  </si>
+  <si>
+    <t>Composition</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -219,10 +231,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -505,11 +516,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,55 +567,55 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>16</v>
+      <c r="AC1" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
@@ -709,16 +720,16 @@
         <v>0.93468576942673043</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
       <c r="E3" s="1">
         <v>0.10299999999999999</v>
       </c>
@@ -808,7 +819,7 @@
         <v>0.87719909919292349</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
@@ -913,16 +924,16 @@
         <v>0.82066410993638128</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="A5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
       <c r="E5" s="1">
         <v>0.25800000000000001</v>
       </c>
@@ -1012,7 +1023,7 @@
         <v>0.73892166420949645</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
@@ -1117,7 +1128,7 @@
         <v>0.65293910708603775</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
@@ -1210,7 +1221,7 @@
         <v>0.57471806481365029</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
@@ -1303,7 +1314,7 @@
         <v>0.51624279142706164</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -1396,7 +1407,7 @@
         <v>0.4632264706570533</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
@@ -1489,7 +1500,7 @@
         <v>0.41395576181349153</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
@@ -1582,7 +1593,7 @@
         <v>0.37044506949303563</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
@@ -1675,7 +1686,7 @@
         <v>0.30774486444492999</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
@@ -1768,7 +1779,7 @@
         <v>0.24936151025282427</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
@@ -1861,7 +1872,7 @@
         <v>0.17535196859532018</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
@@ -1954,7 +1965,7 @@
         <v>0.10546916322860467</v>
       </c>
       <c r="AC15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
@@ -2047,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/DBDQ.xlsx
+++ b/DBDQ.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE582FF6-9827-4AB2-BA36-AA0BCECD32BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="3750" yWindow="3345" windowWidth="15885" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Arizona" sheetId="1" r:id="rId1"/>
+    <sheet name="HEMWat" sheetId="3" r:id="rId1"/>
+    <sheet name="Arizona" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="51">
   <si>
     <t xml:space="preserve">Solvent 1 </t>
   </si>
@@ -81,6 +70,9 @@
     <t>Water</t>
   </si>
   <si>
+    <t>Number</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
@@ -180,13 +172,13 @@
     <t>Z</t>
   </si>
   <si>
-    <t>Composition</t>
+    <t>Hexane</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -231,12 +223,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,11 +510,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,55 +561,1574 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>7.17E-2</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0.92830000000000001</v>
+      </c>
+      <c r="M2" s="1">
+        <f>(U2/$A$4)/((U2/$A$4)+(V2/$B$4)+(W2/$C$4)+(X2/$D$4))</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <f>(V2/$B$4)/((U2/$A$4)+(V2/$B$4)+(W2/$C$4)+(X2/$D$4))</f>
+        <v>0.83607086602323821</v>
+      </c>
+      <c r="O2" s="1">
+        <f>(W2/$C$4)/((U2/$A$4)+(V2/$B$4)+(W2/$C$4)+(X2/$D$4))</f>
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <f>(X2/$D$4)/((U2/$A$4)+(V2/$B$4)+(W2/$C$4)+(X2/$D$4))</f>
+        <v>0.16392913397676173</v>
+      </c>
+      <c r="Q2" s="1">
+        <f>(Y2/$A$4)/((Y2/$A$4)+(Z2/$B$4)+(AA2/$C$4)+(AB2/$D$4))</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <f>(Z2/$B$4)/((Y2/$A$4)+(Z2/$B$4)+(AA2/$C$4)+(AB2/$D$4))</f>
+        <v>1.4086314385775024E-2</v>
+      </c>
+      <c r="S2" s="1">
+        <f>(AA2/$C$4)/((Y2/$A$4)+(Z2/$B$4)+(AA2/$C$4)+(AB2/$D$4))</f>
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <f>(AB2/$D$4)/((Y2/$A$4)+(Z2/$B$4)+(AA2/$C$4)+(AB2/$D$4))</f>
+        <v>0.98591368561422499</v>
+      </c>
+      <c r="U2" s="1">
+        <f>(E2*$A$6)/((E2*$A$6)+(F2*$B$6)+(G2*$C$6)+(H2*$D$6))</f>
+        <v>0</v>
+      </c>
+      <c r="V2" s="1">
+        <f>(F2*$B$6)/((E2*$A$6)+(F2*$B$6)+(G2*$C$6)+(H2*$D$6))</f>
+        <v>0.96145583077900199</v>
+      </c>
+      <c r="W2" s="1">
+        <f>(G2*$C$6)/((E2*$A$6)+(F2*$B$6)+(G2*$C$6)+(H2*$D$6))</f>
+        <v>0</v>
+      </c>
+      <c r="X2" s="1">
+        <f>(H2*$D$6)/((E2*$A$6)+(F2*$B$6)+(G2*$C$6)+(H2*$D$6))</f>
+        <v>3.8544169220997987E-2</v>
+      </c>
+      <c r="Y2" s="1">
+        <f>(I2*$A$6)/((I2*$A$6)+(J2*$B$6)+(K2*$C$6)+(L2*$D$6))</f>
+        <v>0</v>
+      </c>
+      <c r="Z2" s="1">
+        <f>(J2*$B$6)/((I2*$A$6)+(J2*$B$6)+(K2*$C$6)+(L2*$D$6))</f>
+        <v>6.5314230573269641E-2</v>
+      </c>
+      <c r="AA2" s="1">
+        <f>(K2*$C$6)/((I2*$A$6)+(J2*$B$6)+(K2*$C$6)+(L2*$D$6))</f>
+        <v>0</v>
+      </c>
+      <c r="AB2" s="1">
+        <f>(L2*$D$6)/((I2*$A$6)+(J2*$B$6)+(K2*$C$6)+(L2*$D$6))</f>
+        <v>0.93468576942673043</v>
+      </c>
+      <c r="AC2" s="4" t="s">
         <v>17</v>
       </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="1">
+        <v>9.3000000000000013E-2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1.8000000000000002E-2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2.3E-2</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.10099999999999999</v>
+      </c>
+      <c r="K3" s="1">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="M3" s="1">
+        <f t="shared" ref="M3:M16" si="0">(U3/$A$4)/((U3/$A$4)+(V3/$B$4)+(W3/$C$4)+(X3/$D$4))</f>
+        <v>6.3145133267952444E-2</v>
+      </c>
+      <c r="N3" s="1">
+        <f t="shared" ref="N3:N16" si="1">(V3/$B$4)/((U3/$A$4)+(V3/$B$4)+(W3/$C$4)+(X3/$D$4))</f>
+        <v>0.78479013325999625</v>
+      </c>
+      <c r="O3" s="1">
+        <f t="shared" ref="O3:O16" si="2">(W3/$C$4)/((U3/$A$4)+(V3/$B$4)+(W3/$C$4)+(X3/$D$4))</f>
+        <v>3.9387596954579877E-2</v>
+      </c>
+      <c r="P3" s="1">
+        <f t="shared" ref="P3:P16" si="3">(X3/$D$4)/((U3/$A$4)+(V3/$B$4)+(W3/$C$4)+(X3/$D$4))</f>
+        <v>0.11267713651747155</v>
+      </c>
+      <c r="Q3" s="1">
+        <f t="shared" ref="Q3:Q16" si="4">(Y3/$A$4)/((Y3/$A$4)+(Z3/$B$4)+(AA3/$C$4)+(AB3/$D$4))</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <f t="shared" ref="R3:R16" si="5">(Z3/$B$4)/((Y3/$A$4)+(Z3/$B$4)+(AA3/$C$4)+(AB3/$D$4))</f>
+        <v>2.1404402125647079E-2</v>
+      </c>
+      <c r="S3" s="1">
+        <f t="shared" ref="S3:S16" si="6">(AA3/$C$4)/((Y3/$A$4)+(Z3/$B$4)+(AA3/$C$4)+(AB3/$D$4))</f>
+        <v>4.1449384362609018E-2</v>
+      </c>
+      <c r="T3" s="1">
+        <f t="shared" ref="T3:T16" si="7">(AB3/$D$4)/((Y3/$A$4)+(Z3/$B$4)+(AA3/$C$4)+(AB3/$D$4))</f>
+        <v>0.93714621351174399</v>
+      </c>
+      <c r="U3" s="1">
+        <f t="shared" ref="U3:U16" si="8">(E3*$A$6)/((E3*$A$6)+(F3*$B$6)+(G3*$C$6)+(H3*$D$6))</f>
+        <v>6.9872197064760763E-2</v>
+      </c>
+      <c r="V3" s="1">
+        <f t="shared" ref="V3:V16" si="9">(F3*$B$6)/((E3*$A$6)+(F3*$B$6)+(G3*$C$6)+(H3*$D$6))</f>
+        <v>0.88785985778456722</v>
+      </c>
+      <c r="W3" s="1">
+        <f t="shared" ref="W3:W16" si="10">(G3*$C$6)/((E3*$A$6)+(F3*$B$6)+(G3*$C$6)+(H3*$D$6))</f>
+        <v>1.6203829996180915E-2</v>
+      </c>
+      <c r="X3" s="1">
+        <f t="shared" ref="X3:X16" si="11">(H3*$D$6)/((E3*$A$6)+(F3*$B$6)+(G3*$C$6)+(H3*$D$6))</f>
+        <v>2.6064115154491058E-2</v>
+      </c>
+      <c r="Y3" s="1">
+        <f t="shared" ref="Y3:Y16" si="12">(I3*$A$6)/((I3*$A$6)+(J3*$B$6)+(K3*$C$6)+(L3*$D$6))</f>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="1">
+        <f t="shared" ref="Z3:Z16" si="13">(J3*$B$6)/((I3*$A$6)+(J3*$B$6)+(K3*$C$6)+(L3*$D$6))</f>
+        <v>9.3842192006592509E-2</v>
+      </c>
+      <c r="AA3" s="1">
+        <f t="shared" ref="AA3:AA16" si="14">(K3*$C$6)/((I3*$A$6)+(J3*$B$6)+(K3*$C$6)+(L3*$D$6))</f>
+        <v>6.6081582200247221E-2</v>
+      </c>
+      <c r="AB3" s="1">
+        <f t="shared" ref="AB3:AB16" si="15">(L3*$D$6)/((I3*$A$6)+(J3*$B$6)+(K3*$C$6)+(L3*$D$6))</f>
+        <v>0.84007622579316032</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>86.178479999999993</v>
+      </c>
+      <c r="B4" s="1">
+        <v>88.11</v>
+      </c>
+      <c r="C4" s="1">
+        <v>32.04</v>
+      </c>
+      <c r="D4" s="1">
+        <v>18.0153</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.11900000000000001</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.191695403319011</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" si="1"/>
+        <v>0.64342275480171685</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" si="2"/>
+        <v>7.7795933498422315E-2</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" si="3"/>
+        <v>8.7085908380849827E-2</v>
+      </c>
+      <c r="Q4" s="1">
+        <f t="shared" si="4"/>
+        <v>7.04047901325073E-5</v>
+      </c>
+      <c r="R4" s="1">
+        <f t="shared" si="5"/>
+        <v>2.7955539952983728E-2</v>
+      </c>
+      <c r="S4" s="1">
+        <f t="shared" si="6"/>
+        <v>0.11855463766492852</v>
+      </c>
+      <c r="T4" s="1">
+        <f t="shared" si="7"/>
+        <v>0.85341941759195528</v>
+      </c>
+      <c r="U4" s="1">
+        <f t="shared" si="8"/>
+        <v>0.21378645312378342</v>
+      </c>
+      <c r="V4" s="1">
+        <f t="shared" si="9"/>
+        <v>0.7336539670941119</v>
+      </c>
+      <c r="W4" s="1">
+        <f t="shared" si="10"/>
+        <v>3.2256634782973276E-2</v>
+      </c>
+      <c r="X4" s="1">
+        <f t="shared" si="11"/>
+        <v>2.0302944999131534E-2</v>
+      </c>
+      <c r="Y4" s="1">
+        <f t="shared" si="12"/>
+        <v>2.8034774996543369E-4</v>
+      </c>
+      <c r="Z4" s="1">
+        <f t="shared" si="13"/>
+        <v>0.11381227982522589</v>
+      </c>
+      <c r="AA4" s="1">
+        <f t="shared" si="14"/>
+        <v>0.17551211178622658</v>
+      </c>
+      <c r="AB4" s="1">
+        <f t="shared" si="15"/>
+        <v>0.71039526063858216</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="1">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4.4000000000000004E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1.3000000000000001E-2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.26899999999999996</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.2604790263926377</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.56809936781501325</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="2"/>
+        <v>0.10317451933300806</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="3"/>
+        <v>6.8247086459340967E-2</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="4"/>
+        <v>1.1293668705532786E-4</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" si="5"/>
+        <v>3.5422696053875928E-2</v>
+      </c>
+      <c r="S5" s="1">
+        <f t="shared" si="6"/>
+        <v>0.16317969531409268</v>
+      </c>
+      <c r="T5" s="1">
+        <f t="shared" si="7"/>
+        <v>0.8012846719449761</v>
+      </c>
+      <c r="U5" s="1">
+        <f t="shared" si="8"/>
+        <v>0.29138412322362423</v>
+      </c>
+      <c r="V5" s="1">
+        <f t="shared" si="9"/>
+        <v>0.6497462804004841</v>
+      </c>
+      <c r="W5" s="1">
+        <f t="shared" si="10"/>
+        <v>4.2910073302245867E-2</v>
+      </c>
+      <c r="X5" s="1">
+        <f t="shared" si="11"/>
+        <v>1.5959523073645794E-2</v>
+      </c>
+      <c r="Y5" s="1">
+        <f t="shared" si="12"/>
+        <v>4.2697656452029306E-4</v>
+      </c>
+      <c r="Z5" s="1">
+        <f t="shared" si="13"/>
+        <v>0.13692318060721106</v>
+      </c>
+      <c r="AA5" s="1">
+        <f t="shared" si="14"/>
+        <v>0.22936586766999342</v>
+      </c>
+      <c r="AB5" s="1">
+        <f t="shared" si="15"/>
+        <v>0.63328397515827517</v>
+      </c>
+      <c r="AC5" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.997</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.47700000000000004</v>
+      </c>
+      <c r="G6" s="1">
+        <v>6.3E-2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1.1000000000000001E-2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.16399999999999998</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.318</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.32820505605904227</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.46536745901881166</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.14841217169813001</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="3"/>
+        <v>5.8015313224016062E-2</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="4"/>
+        <v>1.6057719958245643E-4</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="5"/>
+        <v>4.3935588437812888E-2</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" si="6"/>
+        <v>0.20570794098739231</v>
+      </c>
+      <c r="T6" s="1">
+        <f t="shared" si="7"/>
+        <v>0.75019589337521242</v>
+      </c>
+      <c r="U6" s="1">
+        <f t="shared" si="8"/>
+        <v>0.37668072079664322</v>
+      </c>
+      <c r="V6" s="1">
+        <f t="shared" si="9"/>
+        <v>0.54607275487177398</v>
+      </c>
+      <c r="W6" s="1">
+        <f t="shared" si="10"/>
+        <v>6.3327351232253595E-2</v>
+      </c>
+      <c r="X6" s="1">
+        <f t="shared" si="11"/>
+        <v>1.3919173099329107E-2</v>
+      </c>
+      <c r="Y6" s="1">
+        <f t="shared" si="12"/>
+        <v>5.7681475214636617E-4</v>
+      </c>
+      <c r="Z6" s="1">
+        <f t="shared" si="13"/>
+        <v>0.16135978187501443</v>
+      </c>
+      <c r="AA6" s="1">
+        <f t="shared" si="14"/>
+        <v>0.27472438770154162</v>
+      </c>
+      <c r="AB6" s="1">
+        <f t="shared" si="15"/>
+        <v>0.56333901567129763</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="E7" s="1">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.38299999999999995</v>
+      </c>
+      <c r="G7" s="1">
+        <v>6.3E-2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>6.9999999999999993E-3</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.192</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41700787417893764</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.38970359298009832</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="2"/>
+        <v>0.15478451948142863</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="3"/>
+        <v>3.8504013359535537E-2</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="4"/>
+        <v>2.5801692473526657E-4</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="5"/>
+        <v>5.5099401808637628E-2</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="6"/>
+        <v>0.24807329762471225</v>
+      </c>
+      <c r="T7" s="1">
+        <f t="shared" si="7"/>
+        <v>0.69656928364191495</v>
+      </c>
+      <c r="U7" s="1">
+        <f t="shared" si="8"/>
+        <v>0.4733122313158129</v>
+      </c>
+      <c r="V7" s="1">
+        <f t="shared" si="9"/>
+        <v>0.45223508590039629</v>
+      </c>
+      <c r="W7" s="1">
+        <f t="shared" si="10"/>
+        <v>6.5316765893275106E-2</v>
+      </c>
+      <c r="X7" s="1">
+        <f t="shared" si="11"/>
+        <v>9.13591689051561E-3</v>
+      </c>
+      <c r="Y7" s="1">
+        <f t="shared" si="12"/>
+        <v>8.7630315846968208E-4</v>
+      </c>
+      <c r="Z7" s="1">
+        <f t="shared" si="13"/>
+        <v>0.19132839913819141</v>
+      </c>
+      <c r="AA7" s="1">
+        <f t="shared" si="14"/>
+        <v>0.31324192175978288</v>
+      </c>
+      <c r="AB7" s="1">
+        <f t="shared" si="15"/>
+        <v>0.49455337594355603</v>
+      </c>
+      <c r="AC7" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="E8" s="1">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.309</v>
+      </c>
+      <c r="G8" s="1">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.50847918578917028</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="1"/>
+        <v>0.33076618809819786</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="2"/>
+        <v>0.13182086066049417</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="3"/>
+        <v>2.8933765452137588E-2</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" si="4"/>
+        <v>4.562138446231619E-4</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" si="5"/>
+        <v>6.1194618122321756E-2</v>
+      </c>
+      <c r="S8" s="1">
+        <f t="shared" si="6"/>
+        <v>0.30140632806516682</v>
+      </c>
+      <c r="T8" s="1">
+        <f t="shared" si="7"/>
+        <v>0.63694283996788825</v>
+      </c>
+      <c r="U8" s="1">
+        <f t="shared" si="8"/>
+        <v>0.5639013467999876</v>
+      </c>
+      <c r="V8" s="1">
+        <f t="shared" si="9"/>
+        <v>0.37503986307286774</v>
+      </c>
+      <c r="W8" s="1">
+        <f t="shared" si="10"/>
+        <v>5.4351029173714191E-2</v>
+      </c>
+      <c r="X8" s="1">
+        <f t="shared" si="11"/>
+        <v>6.7077609534305117E-3</v>
+      </c>
+      <c r="Y8" s="1">
+        <f t="shared" si="12"/>
+        <v>1.4800998227686823E-3</v>
+      </c>
+      <c r="Z8" s="1">
+        <f t="shared" si="13"/>
+        <v>0.20298415890136737</v>
+      </c>
+      <c r="AA8" s="1">
+        <f t="shared" si="14"/>
+        <v>0.36355371743528481</v>
+      </c>
+      <c r="AB8" s="1">
+        <f t="shared" si="15"/>
+        <v>0.4319820238405791</v>
+      </c>
+      <c r="AC8" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="E9" s="1">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="G9" s="1">
+        <v>4.4000000000000004E-2</v>
+      </c>
+      <c r="H9" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="I9" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.43200000000000005</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.56749075068274757</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="1"/>
+        <v>0.29173929548454858</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="2"/>
+        <v>0.11696423112109469</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" si="3"/>
+        <v>2.380572271160903E-2</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" si="4"/>
+        <v>6.9932360421374269E-4</v>
+      </c>
+      <c r="R9" s="1">
+        <f t="shared" si="5"/>
+        <v>6.2536230042345917E-2</v>
+      </c>
+      <c r="S9" s="1">
+        <f t="shared" si="6"/>
+        <v>0.32454186220738385</v>
+      </c>
+      <c r="T9" s="1">
+        <f t="shared" si="7"/>
+        <v>0.61222258414605646</v>
+      </c>
+      <c r="U9" s="1">
+        <f t="shared" si="8"/>
+        <v>0.62073013264467658</v>
+      </c>
+      <c r="V9" s="1">
+        <f t="shared" si="9"/>
+        <v>0.32626113448188321</v>
+      </c>
+      <c r="W9" s="1">
+        <f t="shared" si="10"/>
+        <v>4.7565360056999816E-2</v>
+      </c>
+      <c r="X9" s="1">
+        <f t="shared" si="11"/>
+        <v>5.4433728164404059E-3</v>
+      </c>
+      <c r="Y9" s="1">
+        <f t="shared" si="12"/>
+        <v>2.2322609550204479E-3</v>
+      </c>
+      <c r="Z9" s="1">
+        <f t="shared" si="13"/>
+        <v>0.20409146528851099</v>
+      </c>
+      <c r="AA9" s="1">
+        <f t="shared" si="14"/>
+        <v>0.3851511307082785</v>
+      </c>
+      <c r="AB9" s="1">
+        <f t="shared" si="15"/>
+        <v>0.40852514304818999</v>
+      </c>
+      <c r="AC9" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="E10" s="1">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.20199999999999999</v>
+      </c>
+      <c r="G10" s="1">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="I10" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.66152910720136293</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23375154818106686</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="2"/>
+        <v>9.2207957970000656E-2</v>
+      </c>
+      <c r="P10" s="1">
+        <f t="shared" si="3"/>
+        <v>1.2511386647569442E-2</v>
+      </c>
+      <c r="Q10" s="1">
+        <f t="shared" si="4"/>
+        <v>1.2171155126579005E-3</v>
+      </c>
+      <c r="R10" s="1">
+        <f t="shared" si="5"/>
+        <v>6.6278194233999499E-2</v>
+      </c>
+      <c r="S10" s="1">
+        <f t="shared" si="6"/>
+        <v>0.36871405759301729</v>
+      </c>
+      <c r="T10" s="1">
+        <f t="shared" si="7"/>
+        <v>0.56379063266032525</v>
+      </c>
+      <c r="U10" s="1">
+        <f t="shared" si="8"/>
+        <v>0.70569362103439726</v>
+      </c>
+      <c r="V10" s="1">
+        <f t="shared" si="9"/>
+        <v>0.25494594061373177</v>
+      </c>
+      <c r="W10" s="1">
+        <f t="shared" si="10"/>
+        <v>3.6570366753092651E-2</v>
+      </c>
+      <c r="X10" s="1">
+        <f t="shared" si="11"/>
+        <v>2.7900715987781888E-3</v>
+      </c>
+      <c r="Y10" s="1">
+        <f t="shared" si="12"/>
+        <v>3.7574324401141446E-3</v>
+      </c>
+      <c r="Z10" s="1">
+        <f t="shared" si="13"/>
+        <v>0.20919746700167124</v>
+      </c>
+      <c r="AA10" s="1">
+        <f t="shared" si="14"/>
+        <v>0.42319717140940666</v>
+      </c>
+      <c r="AB10" s="1">
+        <f t="shared" si="15"/>
+        <v>0.36384792914880798</v>
+      </c>
+      <c r="AC10" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="E11" s="1">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.129</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2.3E-2</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="I11" s="1">
+        <v>6.9999999999999993E-3</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.18899999999999997</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.53299999999999992</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.76812996079285134</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" si="1"/>
+        <v>0.15614199056238512</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="2"/>
+        <v>6.7221651070249744E-2</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" si="3"/>
+        <v>8.5063975745138052E-3</v>
+      </c>
+      <c r="Q11" s="1">
+        <f t="shared" si="4"/>
+        <v>1.7801169588477573E-3</v>
+      </c>
+      <c r="R11" s="1">
+        <f t="shared" si="5"/>
+        <v>6.4149165103924377E-2</v>
+      </c>
+      <c r="S11" s="1">
+        <f t="shared" si="6"/>
+        <v>0.43682526713624686</v>
+      </c>
+      <c r="T11" s="1">
+        <f t="shared" si="7"/>
+        <v>0.49724545080098081</v>
+      </c>
+      <c r="U11" s="1">
+        <f t="shared" si="8"/>
+        <v>0.80471057242742983</v>
+      </c>
+      <c r="V11" s="1">
+        <f t="shared" si="9"/>
+        <v>0.16724420761807873</v>
+      </c>
+      <c r="W11" s="1">
+        <f t="shared" si="10"/>
+        <v>2.6182303631644768E-2</v>
+      </c>
+      <c r="X11" s="1">
+        <f t="shared" si="11"/>
+        <v>1.8629163228466613E-3</v>
+      </c>
+      <c r="Y11" s="1">
+        <f t="shared" si="12"/>
+        <v>5.3341602991833336E-3</v>
+      </c>
+      <c r="Z11" s="1">
+        <f t="shared" si="13"/>
+        <v>0.19653273816385916</v>
+      </c>
+      <c r="AA11" s="1">
+        <f t="shared" si="14"/>
+        <v>0.48665249450098452</v>
+      </c>
+      <c r="AB11" s="1">
+        <f t="shared" si="15"/>
+        <v>0.31148060703597308</v>
+      </c>
+      <c r="AC11" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="E12" s="1">
+        <v>0.91299999999999992</v>
+      </c>
+      <c r="F12" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H12" s="1">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="I12" s="1">
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.624</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.85943851325504173</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="1"/>
+        <v>8.7946949558998913E-2</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="2"/>
+        <v>4.8539361707823782E-2</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" si="3"/>
+        <v>4.075175478135561E-3</v>
+      </c>
+      <c r="Q12" s="1">
+        <f t="shared" si="4"/>
+        <v>2.4262191532265168E-3</v>
+      </c>
+      <c r="R12" s="1">
+        <f t="shared" si="5"/>
+        <v>5.8648083987842992E-2</v>
+      </c>
+      <c r="S12" s="1">
+        <f t="shared" si="6"/>
+        <v>0.54212839090722553</v>
+      </c>
+      <c r="T12" s="1">
+        <f t="shared" si="7"/>
+        <v>0.39679730595170498</v>
+      </c>
+      <c r="U12" s="1">
+        <f t="shared" si="8"/>
+        <v>0.88761606063922038</v>
+      </c>
+      <c r="V12" s="1">
+        <f t="shared" si="9"/>
+        <v>9.2866160947617266E-2</v>
+      </c>
+      <c r="W12" s="1">
+        <f t="shared" si="10"/>
+        <v>1.8637947284260468E-2</v>
+      </c>
+      <c r="X12" s="1">
+        <f t="shared" si="11"/>
+        <v>8.7983112890187894E-4</v>
+      </c>
+      <c r="Y12" s="1">
+        <f t="shared" si="12"/>
+        <v>6.9941251230056052E-3</v>
+      </c>
+      <c r="Z12" s="1">
+        <f t="shared" si="13"/>
+        <v>0.17285564638342948</v>
+      </c>
+      <c r="AA12" s="1">
+        <f t="shared" si="14"/>
+        <v>0.58103086044551244</v>
+      </c>
+      <c r="AB12" s="1">
+        <f t="shared" si="15"/>
+        <v>0.23911936804805239</v>
+      </c>
+      <c r="AC12" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="E13" s="1">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1.1000000000000001E-2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="J13" s="1">
+        <v>8.199999999999999E-2</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="L13" s="1">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.96518155745302492</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4415406343000281E-2</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="2"/>
+        <v>1.8986144939561342E-2</v>
+      </c>
+      <c r="P13" s="1">
+        <f t="shared" si="3"/>
+        <v>1.4168912644135453E-3</v>
+      </c>
+      <c r="Q13" s="1">
+        <f t="shared" si="4"/>
+        <v>3.5496252795010111E-3</v>
+      </c>
+      <c r="R13" s="1">
+        <f t="shared" si="5"/>
+        <v>3.2373810602031775E-2</v>
+      </c>
+      <c r="S13" s="1">
+        <f t="shared" si="6"/>
+        <v>0.78266238903109486</v>
+      </c>
+      <c r="T13" s="1">
+        <f t="shared" si="7"/>
+        <v>0.1814141750873724</v>
+      </c>
+      <c r="U13" s="1">
+        <f t="shared" si="8"/>
+        <v>0.97762174927524292</v>
+      </c>
+      <c r="V13" s="1">
+        <f t="shared" si="9"/>
+        <v>1.4928463141651591E-2</v>
+      </c>
+      <c r="W13" s="1">
+        <f t="shared" si="10"/>
+        <v>7.149773921500539E-3</v>
+      </c>
+      <c r="X13" s="1">
+        <f t="shared" si="11"/>
+        <v>3.0001366160505212E-4</v>
+      </c>
+      <c r="Y13" s="1">
+        <f t="shared" si="12"/>
+        <v>9.7101997495326695E-3</v>
+      </c>
+      <c r="Z13" s="1">
+        <f t="shared" si="13"/>
+        <v>9.0545286721436496E-2</v>
+      </c>
+      <c r="AA13" s="1">
+        <f t="shared" si="14"/>
+        <v>0.79600133680510932</v>
+      </c>
+      <c r="AB13" s="1">
+        <f t="shared" si="15"/>
+        <v>0.1037431767239216</v>
+      </c>
+      <c r="AC13" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="E14" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.96847301963573607</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="2"/>
+        <v>3.152698036426399E-2</v>
+      </c>
+      <c r="P14" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
+        <f t="shared" si="4"/>
+        <v>1.2763794052168912E-2</v>
+      </c>
+      <c r="R14" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="1">
+        <f t="shared" si="6"/>
+        <v>0.98723620594783112</v>
+      </c>
+      <c r="T14" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="1">
+        <f t="shared" si="8"/>
+        <v>0.98804185351270546</v>
+      </c>
+      <c r="V14" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="1">
+        <f t="shared" si="10"/>
+        <v>1.1958146487294468E-2</v>
+      </c>
+      <c r="X14" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="1">
+        <f t="shared" si="12"/>
+        <v>3.3606182317352178E-2</v>
+      </c>
+      <c r="Z14" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="1">
+        <f t="shared" si="14"/>
+        <v>0.96639381768264776</v>
+      </c>
+      <c r="AB14" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N15" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O15" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P15" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q15" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R15" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S15" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T15" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U15" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V15" s="1" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W15" s="1" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X15" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y15" s="1" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z15" s="1" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA15" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB15" s="1" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC15" s="1"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N16" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O16" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P16" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q16" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R16" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S16" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T16" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U16" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V16" s="1" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W16" s="1" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X16" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y16" s="1" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z16" s="1" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA16" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB16" s="1" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC16" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A5:D5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC16"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="N1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
@@ -720,16 +2233,16 @@
         <v>0.93468576942673043</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="A3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
       <c r="E3" s="1">
         <v>0.10299999999999999</v>
       </c>
@@ -819,7 +2332,7 @@
         <v>0.87719909919292349</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
@@ -924,16 +2437,16 @@
         <v>0.82066410993638128</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="A5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="1">
         <v>0.25800000000000001</v>
       </c>
@@ -1023,7 +2536,7 @@
         <v>0.73892166420949645</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
@@ -1128,7 +2641,7 @@
         <v>0.65293910708603775</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
@@ -1221,7 +2734,7 @@
         <v>0.57471806481365029</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
@@ -1314,7 +2827,7 @@
         <v>0.51624279142706164</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -1407,7 +2920,7 @@
         <v>0.4632264706570533</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
@@ -1500,7 +3013,7 @@
         <v>0.41395576181349153</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
@@ -1593,7 +3106,7 @@
         <v>0.37044506949303563</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
@@ -1686,7 +3199,7 @@
         <v>0.30774486444492999</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
@@ -1779,7 +3292,7 @@
         <v>0.24936151025282427</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
@@ -1872,7 +3385,7 @@
         <v>0.17535196859532018</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
@@ -1965,7 +3478,7 @@
         <v>0.10546916322860467</v>
       </c>
       <c r="AC15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
@@ -2058,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/DBDQ.xlsx
+++ b/DBDQ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HEMWat" sheetId="3" r:id="rId1"/>
@@ -70,9 +70,6 @@
     <t>Water</t>
   </si>
   <si>
-    <t>Number</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -173,6 +170,9 @@
   </si>
   <si>
     <t>Hexane</t>
+  </si>
+  <si>
+    <t>Composition</t>
   </si>
 </sst>
 </file>
@@ -227,10 +227,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,60 +561,60 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="AC1" s="2" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>13</v>
@@ -713,17 +713,17 @@
         <f>(L2*$D$6)/((I2*$A$6)+(J2*$B$6)+(K2*$C$6)+(L2*$D$6))</f>
         <v>0.93468576942673043</v>
       </c>
-      <c r="AC2" s="4" t="s">
-        <v>17</v>
+      <c r="AC2" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="A3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
       <c r="E3" s="1">
         <v>9.3000000000000013E-2</v>
       </c>
@@ -812,8 +812,8 @@
         <f t="shared" ref="AB3:AB16" si="15">(L3*$D$6)/((I3*$A$6)+(J3*$B$6)+(K3*$C$6)+(L3*$D$6))</f>
         <v>0.84007622579316032</v>
       </c>
-      <c r="AC3" s="4" t="s">
-        <v>36</v>
+      <c r="AC3" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
@@ -917,17 +917,17 @@
         <f t="shared" si="15"/>
         <v>0.71039526063858216</v>
       </c>
-      <c r="AC4" s="4" t="s">
-        <v>38</v>
+      <c r="AC4" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="A5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="1">
         <v>0.35799999999999998</v>
       </c>
@@ -1016,8 +1016,8 @@
         <f t="shared" si="15"/>
         <v>0.63328397515827517</v>
       </c>
-      <c r="AC5" s="4" t="s">
-        <v>39</v>
+      <c r="AC5" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
@@ -1121,8 +1121,8 @@
         <f t="shared" si="15"/>
         <v>0.56333901567129763</v>
       </c>
-      <c r="AC6" s="4" t="s">
-        <v>40</v>
+      <c r="AC6" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
@@ -1214,8 +1214,8 @@
         <f t="shared" si="15"/>
         <v>0.49455337594355603</v>
       </c>
-      <c r="AC7" s="4" t="s">
-        <v>41</v>
+      <c r="AC7" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
@@ -1307,8 +1307,8 @@
         <f t="shared" si="15"/>
         <v>0.4319820238405791</v>
       </c>
-      <c r="AC8" s="4" t="s">
-        <v>42</v>
+      <c r="AC8" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -1400,8 +1400,8 @@
         <f t="shared" si="15"/>
         <v>0.40852514304818999</v>
       </c>
-      <c r="AC9" s="4" t="s">
-        <v>43</v>
+      <c r="AC9" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
@@ -1493,8 +1493,8 @@
         <f t="shared" si="15"/>
         <v>0.36384792914880798</v>
       </c>
-      <c r="AC10" s="4" t="s">
-        <v>44</v>
+      <c r="AC10" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
@@ -1586,8 +1586,8 @@
         <f t="shared" si="15"/>
         <v>0.31148060703597308</v>
       </c>
-      <c r="AC11" s="4" t="s">
-        <v>45</v>
+      <c r="AC11" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
@@ -1679,8 +1679,8 @@
         <f t="shared" si="15"/>
         <v>0.23911936804805239</v>
       </c>
-      <c r="AC12" s="4" t="s">
-        <v>46</v>
+      <c r="AC12" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
@@ -1772,8 +1772,8 @@
         <f t="shared" si="15"/>
         <v>0.1037431767239216</v>
       </c>
-      <c r="AC13" s="4" t="s">
-        <v>48</v>
+      <c r="AC13" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
@@ -1865,8 +1865,8 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AC14" s="4" t="s">
-        <v>49</v>
+      <c r="AC14" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
@@ -2032,8 +2032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC16"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2080,55 +2080,55 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="AC1" s="2" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
@@ -2233,16 +2233,16 @@
         <v>0.93468576942673043</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="A3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
       <c r="E3" s="1">
         <v>0.10299999999999999</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>0.87719909919292349</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
@@ -2437,16 +2437,16 @@
         <v>0.82066410993638128</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="A5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="1">
         <v>0.25800000000000001</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>0.73892166420949645</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
@@ -2641,7 +2641,7 @@
         <v>0.65293910708603775</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
@@ -2734,7 +2734,7 @@
         <v>0.57471806481365029</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
@@ -2827,7 +2827,7 @@
         <v>0.51624279142706164</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -2920,7 +2920,7 @@
         <v>0.4632264706570533</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
@@ -3013,7 +3013,7 @@
         <v>0.41395576181349153</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
@@ -3106,7 +3106,7 @@
         <v>0.37044506949303563</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
@@ -3199,7 +3199,7 @@
         <v>0.30774486444492999</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
@@ -3292,7 +3292,7 @@
         <v>0.24936151025282427</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
@@ -3385,7 +3385,7 @@
         <v>0.17535196859532018</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
@@ -3478,7 +3478,7 @@
         <v>0.10546916322860467</v>
       </c>
       <c r="AC15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
